--- a/실무_엑셀_예제_파일/Chapter02/02-011.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A934F61B-E93C-4A92-A102-C3A2F55A1807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8666B13D-C348-4D48-A482-BBCAB2CF796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{4361A525-5824-40DA-81E2-122B4E5594AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{4361A525-5824-40DA-81E2-122B4E5594AE}"/>
   </bookViews>
   <sheets>
     <sheet name="과일채소명" sheetId="2" r:id="rId1"/>
@@ -18,27 +18,17 @@
     <sheet name="스토어매출" sheetId="1" r:id="rId3"/>
     <sheet name="마케팅키워드" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -52,79 +42,37 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CA-2020-152156</t>
-  </si>
-  <si>
-    <t>CA-2017-138688</t>
-  </si>
-  <si>
     <t>SK그룹_건설</t>
   </si>
   <si>
-    <t>CA-2015-108966</t>
-  </si>
-  <si>
     <t>SK그룹_네트웍스</t>
   </si>
   <si>
-    <t>CA-2018-108966</t>
-  </si>
-  <si>
     <t>SK그룹_물산</t>
   </si>
   <si>
-    <t>CA-2015-115812</t>
-  </si>
-  <si>
     <t>SK그룹_브로드밴드</t>
   </si>
   <si>
-    <t>CN-2018-115812</t>
-  </si>
-  <si>
     <t>SK그룹_와이번스</t>
   </si>
   <si>
-    <t>KR-2016-115812</t>
-  </si>
-  <si>
     <t>SK그룹_텔링크</t>
   </si>
   <si>
-    <t>US-2019-115812</t>
-  </si>
-  <si>
     <t>대우_건설</t>
   </si>
   <si>
-    <t>CA-2020-115812</t>
-  </si>
-  <si>
     <t>대우_공업</t>
   </si>
   <si>
-    <t>KR-2018-115812</t>
-  </si>
-  <si>
     <t>대우_교통</t>
   </si>
   <si>
-    <t>US-2015-115812</t>
-  </si>
-  <si>
     <t>대우_자동차</t>
   </si>
   <si>
-    <t>US-2017-114412</t>
-  </si>
-  <si>
     <t>대우_전자</t>
-  </si>
-  <si>
-    <t>KR-2016-161389</t>
-  </si>
-  <si>
-    <t>CN-2015-118983</t>
   </si>
   <si>
     <t>경상구미</t>
@@ -153,65 +101,142 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>무화과오렌지복숭아토마토구아바코코넛</t>
-  </si>
-  <si>
-    <t>한라봉바나나두리안산딸기파파야고구마</t>
-  </si>
-  <si>
-    <t>양상추양배추단무지양송이애호박미나리</t>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 마케팅팀은 지금의 암울한 경기를 회복하고 매출을 증진하기 위한 핵심 키워드를 고려해봐야 할 것입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>코로나19 시대, 마케팅 키워드 찾기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>코로나19 사태가 점점 장기화되고 있습니다.
-따라서 기업들은 요즘 어떻게 마케팅을 해야할지 큰 고민에 빠졌습니다.</t>
+    <t>무화과</t>
+  </si>
+  <si>
+    <t>오렌지</t>
+  </si>
+  <si>
+    <t>복숭아</t>
+  </si>
+  <si>
+    <t>토마토</t>
+  </si>
+  <si>
+    <t>구아바</t>
+  </si>
+  <si>
+    <t>코코넛</t>
+  </si>
+  <si>
+    <t>한라봉</t>
+  </si>
+  <si>
+    <t>바나나</t>
+  </si>
+  <si>
+    <t>두리안</t>
+  </si>
+  <si>
+    <t>산딸기</t>
+  </si>
+  <si>
+    <t>파파야</t>
+  </si>
+  <si>
+    <t>고구마</t>
+  </si>
+  <si>
+    <t>양상추</t>
+  </si>
+  <si>
+    <t>양배추</t>
+  </si>
+  <si>
+    <t>단무지</t>
+  </si>
+  <si>
+    <t>양송이</t>
+  </si>
+  <si>
+    <t>애호박</t>
+  </si>
+  <si>
+    <t>미나리</t>
+  </si>
+  <si>
+    <t>주문번호</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>연도</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>마케팅 담당자와 광고주들은 모두 적절한 메시지를 찾아 노력중입니다.
-하지만 아쉽게도 새로운 단어를 찾기란 쉽지가 않죠.</t>
+    <t>주문ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>마케팅의 역할은 무엇일까요.
-사람들이 무언가를 사거나 좋아하도록 격려하는 것 입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그것이 제품, 서비스, 인력 무엇이든 말입니다.
-요즘 시대에 가장 획기적인 키워드는 무엇일까요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회식 후 고기 냄새가 배어버린 패딩의 냄새를 없애는 간단한 방법이 있다. 드라이클리닝을 맡기는 방법이 최우선이지만 시간과 돈을 아끼고 싶다면 이 방법을 써보자.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"패딩에 밴 고기냄새, 욕실에서 없애보세요"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월 2일 / 뉴스기사 스크랩 (Daum 뉴스)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>간혹 새 제품의 병뚜껑이 열리지 않아 고생하는 경우가 있다. 아무리 힘을 줘도 병뚜껑이 열리지 않을 땐 대부분 고무장갑을 끼고 병뚜껑을 돌리거나 뜨거운 물을 부어서 병뚜껑을 연다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"병뚜껑 안 열릴 땐 OO 를 사용하세요"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>코로나19 사태가 점점 장기화되고 있습니다.</t>
+  </si>
+  <si>
+    <t>따라서 기업들은 요즘 어떻게 마케팅을 해야할지 큰 고민에 빠졌습니다.</t>
+  </si>
+  <si>
+    <t>마케팅 담당자와 광고주들은 모두 적절한 메시지를 찾아 노력중입니다.</t>
+  </si>
+  <si>
+    <t>하지만 아쉽게도 새로운 단어를 찾기란 쉽지가 않죠.</t>
+  </si>
+  <si>
+    <t>마케팅의 역할은 무엇일까요.</t>
+  </si>
+  <si>
+    <t>사람들이 무언가를 사거나 좋아하도록 격려하는 것 입니다.</t>
+  </si>
+  <si>
+    <t>그것이 제품, 서비스, 인력 무엇이든 말입니다.</t>
+  </si>
+  <si>
+    <t>요즘 시대에 가장 획기적인 키워드는 무엇일까요.</t>
+  </si>
+  <si>
+    <t>우리 마케팅팀은 지금의 암울한 경기를 회복하고 매출을 증진하기 위한 핵심 키워드를 고려해봐야 할 것입니다.</t>
+  </si>
+  <si>
+    <t>2월 2일 / 뉴스기사 스크랩 (Daum 뉴스) "병뚜껑 안 열릴 땐 OO 를 사용</t>
+  </si>
+  <si>
+    <t>하세요"간혹 새 제품의 병뚜껑이 열리지 않아 고생하는</t>
+  </si>
+  <si>
+    <t>경우가 있다. 아무리 힘을 줘도 병뚜껑이 열리지 않을 땐 대</t>
+  </si>
+  <si>
+    <t>부분 고무장갑을 끼고 병뚜껑을 돌리거나 뜨거운 물을 부어</t>
+  </si>
+  <si>
+    <t>서 병뚜껑을 연다.</t>
+  </si>
+  <si>
+    <t>2월 2일 / 뉴스기사 스크랩 (Daum 뉴스) "패딩에 밴 고기냄</t>
+  </si>
+  <si>
+    <t>새, 욕실에서 없애보세요"회식 후 고기 냄새가 배어버린 패</t>
+  </si>
+  <si>
+    <t>딩의 냄새를 없애는 간단한 방법이 있다. 드라이클리닝을 맡</t>
+  </si>
+  <si>
+    <t>기는 방법이 최우선이지만 시간과 돈을 아끼고 싶다면 이 방</t>
+  </si>
+  <si>
+    <t>법을 써보자.</t>
   </si>
 </sst>
 </file>
@@ -677,28 +702,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C57C7F5-6510-434B-896B-498923BF97B1}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -709,45 +811,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FDE095-ECC7-477F-BF63-82FE91FA6B24}">
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.08203125" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="2:2" ht="17" x14ac:dyDescent="0.45">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -758,269 +888,361 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480577F1-D717-48A9-97C9-E5B238CE87D5}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="2" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="2">
+        <v>152156</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="2">
+        <v>138688</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="2">
+        <v>108966</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="2">
+        <v>108966</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="2">
+        <v>115812</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="2">
+        <v>115812</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="2">
+        <v>115812</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="2">
+        <v>115812</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="2">
+        <v>115812</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="2">
+        <v>115812</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D12" s="2">
+        <v>115812</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="2">
+        <v>114412</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D14" s="2">
+        <v>161389</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="2">
+        <v>118983</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1032,45 +1254,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFACB816-4892-4F54-95C8-19BE22F87DDA}">
-  <dimension ref="B1:B8"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="104.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:3" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
